--- a/COD_EDP/calibration/CalibracaoSensores.xlsx
+++ b/COD_EDP/calibration/CalibracaoSensores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ENSAIOS_ESPECIAIS\Desktop\Software Ensaio Dinâmicos\edp\COD_EDP\calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B999A1-1C7D-4F4D-A252-4056A9391CB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B46E3C-EE3C-4A74-86C6-132461255168}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t xml:space="preserve">Contagem </t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>MULT</t>
+  </si>
+  <si>
+    <t>No programa vc escreve a pressão em mBar e manda para o DAC</t>
   </si>
 </sst>
 </file>
@@ -117,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -129,6 +132,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -614,6 +620,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>ADC x Pressão Output</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1075,6 +1106,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>DAC x Pressão Output</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
@@ -1143,6 +1199,70 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.8465879265091857E-2"/>
+                  <c:y val="4.2129629629629626E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Camara!$A$3:$A$18</c:f>
@@ -1466,6 +1586,483 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Pressão Output</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> x DAC</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.251837270341208E-2"/>
+                  <c:y val="5.1582093904928555E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Camara!$A$23:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>739</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>888</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1037</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1182</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1336</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1454</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1635</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1781</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1891</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2085</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2230</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Camara!$B$23:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FA29-4E6A-A10A-39DFD8ED3263}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="522879808"/>
+        <c:axId val="522880136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="522879808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="522880136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="522880136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="522879808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1850,7 +2447,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2449,6 +3046,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4514,6 +5151,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5110,16 +6263,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5139,6 +6292,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>566737</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{162B42BF-39A2-442B-82DC-ED9690302224}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5823,10 +7012,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96ADBDE5-9842-498B-870E-18AE0B729996}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" activeCellId="1" sqref="C3:C18 A3:A18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6011,7 +7200,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2800</v>
       </c>
@@ -6022,7 +7211,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>3000</v>
       </c>
@@ -6033,7 +7222,168 @@
         <v>2230</v>
       </c>
     </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>49</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>130</v>
+      </c>
+      <c r="B24" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>292</v>
+      </c>
+      <c r="B25" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>483</v>
+      </c>
+      <c r="B26" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>583</v>
+      </c>
+      <c r="B27" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>739</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>888</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>1037</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>1182</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>1336</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>1454</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>1635</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>1781</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>1891</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>2085</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>2230</v>
+      </c>
+      <c r="B38" s="1">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A20:J20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -6044,7 +7394,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6054,11 +7404,11 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
-        <f t="shared" ref="A1:J1" si="0">INT(AVERAGE(A3:A12))</f>
+        <f>INT(AVERAGE(A3:A12))</f>
         <v>55882</v>
       </c>
       <c r="B1" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A1:J1" si="0">INT(AVERAGE(B3:B12))</f>
         <v>53309</v>
       </c>
       <c r="C1" s="3">

--- a/COD_EDP/calibration/CalibracaoSensores.xlsx
+++ b/COD_EDP/calibration/CalibracaoSensores.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ENSAIOS_ESPECIAIS\Desktop\Software Ensaio Dinâmicos\edp\COD_EDP\calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B46E3C-EE3C-4A74-86C6-132461255168}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895776B7-D1AD-4E5C-AEA0-CC16E04A5210}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Motor" sheetId="3" r:id="rId1"/>
-    <sheet name="Camara" sheetId="4" r:id="rId2"/>
-    <sheet name="2019113442" sheetId="2" r:id="rId3"/>
-    <sheet name="2019113443" sheetId="1" r:id="rId4"/>
+    <sheet name="Camara" sheetId="5" r:id="rId2"/>
+    <sheet name="Camara(1)" sheetId="4" r:id="rId3"/>
+    <sheet name="2019113442" sheetId="2" r:id="rId4"/>
+    <sheet name="2019113443" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t xml:space="preserve">Contagem </t>
   </si>
@@ -64,6 +65,21 @@
   </si>
   <si>
     <t>No programa vc escreve a pressão em mBar e manda para o DAC</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>adc</t>
+  </si>
+  <si>
+    <t>dac</t>
+  </si>
+  <si>
+    <t>mBar</t>
+  </si>
+  <si>
+    <t>ADC</t>
   </si>
 </sst>
 </file>
@@ -120,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -132,6 +148,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -620,6 +639,868 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.0671697287839068E-2"/>
+                  <c:y val="-4.1666666666666669E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Camara!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Camara!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1347</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1619</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1891</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2163</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2436</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2708</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2980</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B92-4662-A33D-2B4C004D1CCE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="501869264"/>
+        <c:axId val="501869592"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="501869264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501869592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="501869592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501869264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.3673228346456694E-2"/>
+                  <c:y val="-2.2213837853601634E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Camara!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>682</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>784</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>885</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1085</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1183</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Camara!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>824</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1213</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1407</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1817</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2230</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2430</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3440-4EDE-B500-F4AA8BF4AA4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="496583488"/>
+        <c:axId val="496583816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="496583488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496583816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="496583816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496583488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -785,7 +1666,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Camara!$B$3:$B$18</c:f>
+              <c:f>'Camara(1)'!$B$3:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -842,7 +1723,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Camara!$C$3:$C$18</c:f>
+              <c:f>'Camara(1)'!$C$3:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1091,7 +1972,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1265,7 +2146,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Camara!$A$3:$A$18</c:f>
+              <c:f>'Camara(1)'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1322,7 +2203,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Camara!$C$3:$C$18</c:f>
+              <c:f>'Camara(1)'!$C$3:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1571,7 +2452,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1742,7 +2623,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Camara!$A$23:$A$38</c:f>
+              <c:f>'Camara(1)'!$A$23:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1799,7 +2680,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Camara!$B$23:$B$38</c:f>
+              <c:f>'Camara(1)'!$B$23:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2048,7 +2929,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2447,7 +3328,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3086,6 +3967,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5667,6 +6628,1038 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6224,6 +8217,83 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6C47A96-4FE3-4394-9E54-7DEA9E933C58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07BD2B74-FD87-478E-BA8D-F97D28E8A720}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6336,7 +8406,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6377,7 +8447,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7011,11 +9081,212 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094E0357-89AF-4B50-A813-D18FD21B270B}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>200</v>
+      </c>
+      <c r="B2" s="5">
+        <v>258</v>
+      </c>
+      <c r="C2" s="5">
+        <v>60</v>
+      </c>
+      <c r="D2" s="5">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>400</v>
+      </c>
+      <c r="B3" s="5">
+        <v>530</v>
+      </c>
+      <c r="C3" s="5">
+        <v>185</v>
+      </c>
+      <c r="D3" s="5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>600</v>
+      </c>
+      <c r="B4" s="5">
+        <v>802</v>
+      </c>
+      <c r="C4" s="5">
+        <v>275</v>
+      </c>
+      <c r="D4" s="5">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>800</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1075</v>
+      </c>
+      <c r="C5" s="5">
+        <v>405</v>
+      </c>
+      <c r="D5" s="5">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>1000</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1347</v>
+      </c>
+      <c r="C6" s="5">
+        <v>492</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>1200</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1619</v>
+      </c>
+      <c r="C7" s="5">
+        <v>585</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>1400</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1891</v>
+      </c>
+      <c r="C8" s="5">
+        <v>682</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>1600</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2163</v>
+      </c>
+      <c r="C9" s="5">
+        <v>784</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>1800</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2436</v>
+      </c>
+      <c r="C10" s="5">
+        <v>885</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>2000</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2708</v>
+      </c>
+      <c r="C11" s="5">
+        <v>983</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>2200</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2980</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1085</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>2400</v>
+      </c>
+      <c r="B13" s="5">
+        <v>3252</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1183</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2430</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96ADBDE5-9842-498B-870E-18AE0B729996}">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7200,7 +9471,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2800</v>
       </c>
@@ -7210,8 +9481,14 @@
       <c r="C17" s="1">
         <v>2085</v>
       </c>
+      <c r="L17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="1">
+        <v>72</v>
+      </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>3000</v>
       </c>
@@ -7221,46 +9498,80 @@
       <c r="C18" s="1">
         <v>2230</v>
       </c>
+      <c r="M18" s="1">
+        <v>2.0457000000000001</v>
+      </c>
+      <c r="N18" s="1">
+        <v>6.6138000000000003</v>
+      </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" s="1">
+        <f>M18*M17+N18</f>
+        <v>153.9042</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="L21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="1">
+        <v>200</v>
+      </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="M22" s="1">
+        <v>1.3612</v>
+      </c>
+      <c r="N22" s="1">
+        <v>-13.944000000000001</v>
+      </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>49</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
       </c>
+      <c r="L23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M23" s="2">
+        <f>M22*M21+N22</f>
+        <v>258.29599999999999</v>
+      </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>130</v>
       </c>
@@ -7268,7 +9579,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>292</v>
       </c>
@@ -7276,7 +9587,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>483</v>
       </c>
@@ -7284,7 +9595,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>583</v>
       </c>
@@ -7292,7 +9603,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>739</v>
       </c>
@@ -7300,7 +9611,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>888</v>
       </c>
@@ -7308,7 +9619,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1037</v>
       </c>
@@ -7316,7 +9627,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1182</v>
       </c>
@@ -7324,7 +9635,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1336</v>
       </c>
@@ -7389,7 +9700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F2AB63-4000-4737-981F-090F9409C35E}">
   <dimension ref="A1:J12"/>
   <sheetViews>
@@ -7408,7 +9719,7 @@
         <v>55882</v>
       </c>
       <c r="B1" s="3">
-        <f t="shared" ref="A1:J1" si="0">INT(AVERAGE(B3:B12))</f>
+        <f t="shared" ref="B1:J1" si="0">INT(AVERAGE(B3:B12))</f>
         <v>53309</v>
       </c>
       <c r="C1" s="3">
@@ -7802,7 +10113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>

--- a/COD_EDP/calibration/CalibracaoSensores.xlsx
+++ b/COD_EDP/calibration/CalibracaoSensores.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ENSAIOS_ESPECIAIS\Desktop\Software Ensaio Dinâmicos\edp\COD_EDP\calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895776B7-D1AD-4E5C-AEA0-CC16E04A5210}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81007449-68E3-49BA-B87A-5A721F66AEA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Motor" sheetId="3" r:id="rId1"/>
-    <sheet name="Camara" sheetId="5" r:id="rId2"/>
-    <sheet name="Camara(1)" sheetId="4" r:id="rId3"/>
-    <sheet name="2019113442" sheetId="2" r:id="rId4"/>
-    <sheet name="2019113443" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
+    <sheet name="Motor" sheetId="3" r:id="rId2"/>
+    <sheet name="Camara" sheetId="5" r:id="rId3"/>
+    <sheet name="Camara(1)" sheetId="4" r:id="rId4"/>
+    <sheet name="2019113442" sheetId="2" r:id="rId5"/>
+    <sheet name="2019113443" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t xml:space="preserve">Contagem </t>
   </si>
@@ -80,6 +81,12 @@
   </si>
   <si>
     <t>ADC</t>
+  </si>
+  <si>
+    <t>DAC0</t>
+  </si>
+  <si>
+    <t>DISPLAY BAR</t>
   </si>
 </sst>
 </file>
@@ -136,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -148,6 +155,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8221,15 +8231,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8256,16 +8266,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>100012</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8750,6 +8760,267 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594656ED-E196-4271-991C-F9652D03F534}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>200</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>300</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>400</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>500</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>750</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>1000</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>1200</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>1400</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>1600</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>1800</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.62</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>2000</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.69</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>2200</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>2400</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>2600</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0.91</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>2800</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="C16" s="6">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>3000</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="C17" s="6">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>3200</v>
+      </c>
+      <c r="B18" s="6">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>3400</v>
+      </c>
+      <c r="B19" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>3600</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1.27</v>
+      </c>
+      <c r="C20" s="6">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>3800</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1.35</v>
+      </c>
+      <c r="C21" s="6">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>4000</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1.42</v>
+      </c>
+      <c r="C22" s="6">
+        <v>2575</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B67C43-3601-41C6-8077-59C52C1211F8}">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -9080,12 +9351,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094E0357-89AF-4B50-A813-D18FD21B270B}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9281,7 +9552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96ADBDE5-9842-498B-870E-18AE0B729996}">
   <dimension ref="A1:N38"/>
   <sheetViews>
@@ -9515,18 +9786,18 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -9700,7 +9971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F2AB63-4000-4737-981F-090F9409C35E}">
   <dimension ref="A1:J12"/>
   <sheetViews>
@@ -10113,7 +10384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>

--- a/COD_EDP/calibration/CalibracaoSensores.xlsx
+++ b/COD_EDP/calibration/CalibracaoSensores.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ENSAIOS_ESPECIAIS\Desktop\Software Ensaio Dinâmicos\edp\COD_EDP\calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81007449-68E3-49BA-B87A-5A721F66AEA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8A9855-E942-4F3B-AE3B-373A5A5A0E8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
-    <sheet name="Motor" sheetId="3" r:id="rId2"/>
-    <sheet name="Camara" sheetId="5" r:id="rId3"/>
-    <sheet name="Camara(1)" sheetId="4" r:id="rId4"/>
+    <sheet name="Motor" sheetId="3" r:id="rId1"/>
+    <sheet name="Camara" sheetId="5" r:id="rId2"/>
+    <sheet name="Camara(1)" sheetId="4" r:id="rId3"/>
+    <sheet name="Camara(2)" sheetId="6" r:id="rId4"/>
     <sheet name="2019113442" sheetId="2" r:id="rId5"/>
     <sheet name="2019113443" sheetId="1" r:id="rId6"/>
   </sheets>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t xml:space="preserve">Contagem </t>
   </si>
@@ -143,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -155,6 +155,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -579,6 +582,405 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="507876272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.29956671041119859"/>
+                  <c:y val="-0.1100521289005541"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2019113443'!$A$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>55440</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52851</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50217</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45112</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42501</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39904</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37286</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34641</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2019113443'!$A$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3F61-4371-A26D-D486C615614A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="495318840"/>
+        <c:axId val="495321464"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="495318840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="495321464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="495321464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="495318840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2954,6 +3356,992 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ADC-mbar</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Camara(2)'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ADC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Camara(2)'!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1275</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1313</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1346</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1379</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1472</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1548</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1617</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1689</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1757</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1891</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2183</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2263</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2306</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2373</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2454</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2521</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2575</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Camara(2)'!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1270</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1420</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EAEC-4E03-937F-67BEDEBE8F04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="407449880"/>
+        <c:axId val="407450208"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="407449880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="407450208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="407450208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="407449880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>mbar-DAC0</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Camara(2)'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DAC0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Camara(2)'!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1270</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1420</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Camara(2)'!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6EEA-41D2-877F-2D1270AB8D0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="408960224"/>
+        <c:axId val="408960552"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="408960224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="408960552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="408960552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="408960224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3338,406 +4726,47 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.29956671041119859"/>
-                  <c:y val="-0.1100521289005541"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="pt-BR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'2019113443'!$A$1:$J$1</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>55440</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>52851</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50217</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>47701</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45112</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42501</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>39904</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>37286</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>34641</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>32101</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'2019113443'!$A$2:$J$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3F61-4371-A26D-D486C615614A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="495318840"/>
-        <c:axId val="495321464"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="495318840"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="495321464"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="495321464"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="495318840"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4057,6 +5086,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4573,7 +5642,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5089,7 +6158,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5605,7 +6674,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6121,7 +7190,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6637,7 +7706,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7153,7 +8222,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7669,7 +8738,1039 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8420,6 +10521,83 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EB7992D-BE53-4A34-A56C-A4D97F22FBCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28BEFB04-284B-4283-8074-F13D237BB8B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>14287</xdr:colOff>
       <xdr:row>13</xdr:row>
@@ -8457,7 +10635,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8760,267 +10938,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594656ED-E196-4271-991C-F9652D03F534}">
-  <dimension ref="A1:C22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="12.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>200</v>
-      </c>
-      <c r="B2" s="6">
-        <v>0.04</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>300</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>400</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0.12</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>500</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>750</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0.24</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>1000</v>
-      </c>
-      <c r="B7" s="6">
-        <v>0.33</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>1200</v>
-      </c>
-      <c r="B8" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1617</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>1400</v>
-      </c>
-      <c r="B9" s="6">
-        <v>0.48</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1689</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>1600</v>
-      </c>
-      <c r="B10" s="6">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>1800</v>
-      </c>
-      <c r="B11" s="6">
-        <v>0.62</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>2000</v>
-      </c>
-      <c r="B12" s="6">
-        <v>0.69</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1891</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>2200</v>
-      </c>
-      <c r="B13" s="6">
-        <v>0.76</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1967</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>2400</v>
-      </c>
-      <c r="B14" s="6">
-        <v>0.83</v>
-      </c>
-      <c r="C14" s="6">
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>2600</v>
-      </c>
-      <c r="B15" s="6">
-        <v>0.91</v>
-      </c>
-      <c r="C15" s="6">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>2800</v>
-      </c>
-      <c r="B16" s="6">
-        <v>0.98</v>
-      </c>
-      <c r="C16" s="6">
-        <v>2183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>3000</v>
-      </c>
-      <c r="B17" s="6">
-        <v>1.05</v>
-      </c>
-      <c r="C17" s="6">
-        <v>2263</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>3200</v>
-      </c>
-      <c r="B18" s="6">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="C18" s="6">
-        <v>2306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>3400</v>
-      </c>
-      <c r="B19" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="C19" s="6">
-        <v>2373</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>3600</v>
-      </c>
-      <c r="B20" s="6">
-        <v>1.27</v>
-      </c>
-      <c r="C20" s="6">
-        <v>2454</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>3800</v>
-      </c>
-      <c r="B21" s="6">
-        <v>1.35</v>
-      </c>
-      <c r="C21" s="6">
-        <v>2521</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>4000</v>
-      </c>
-      <c r="B22" s="6">
-        <v>1.42</v>
-      </c>
-      <c r="C22" s="6">
-        <v>2575</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B67C43-3601-41C6-8077-59C52C1211F8}">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -9351,12 +11268,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094E0357-89AF-4B50-A813-D18FD21B270B}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9552,7 +11469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96ADBDE5-9842-498B-870E-18AE0B729996}">
   <dimension ref="A1:N38"/>
   <sheetViews>
@@ -9786,18 +11703,18 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -9966,6 +11883,357 @@
   <mergeCells count="1">
     <mergeCell ref="A20:J20"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594656ED-E196-4271-991C-F9652D03F534}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="6"/>
+    <col min="3" max="3" width="12.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>200</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1275</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="D2" s="6">
+        <f>C2*1000</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>300</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1313</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="D3" s="7">
+        <f t="shared" ref="D3:D22" si="0">C3*1000</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>400</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1346</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>500</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1379</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>750</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1472</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>1000</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1548</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>1200</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1617</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>1400</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1689</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>1600</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1757</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>1800</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1840</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.62</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>620</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>2000</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1891</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.69</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>2200</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1967</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>760</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>2400</v>
+      </c>
+      <c r="B14" s="6">
+        <v>2036</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="0"/>
+        <v>830</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>2600</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2100</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.91</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="0"/>
+        <v>910</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>2800</v>
+      </c>
+      <c r="B16" s="6">
+        <v>2183</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="0"/>
+        <v>980</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>3000</v>
+      </c>
+      <c r="B17" s="6">
+        <v>2263</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>3200</v>
+      </c>
+      <c r="B18" s="6">
+        <v>2306</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="0"/>
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>3400</v>
+      </c>
+      <c r="B19" s="6">
+        <v>2373</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>3600</v>
+      </c>
+      <c r="B20" s="6">
+        <v>2454</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1.27</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" si="0"/>
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>3800</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2521</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1.35</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>4000</v>
+      </c>
+      <c r="B22" s="6">
+        <v>2575</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1.42</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>1420</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
